--- a/data/trans_orig/IQ2608_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IQ2608_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2606D404-C1E6-404D-8A17-A7745E64EB87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACB16290-CA88-4B24-AE69-AE1014E5DBE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BE73D5A9-F3C4-4C2C-84EC-40F93548800A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A8872D35-650B-4A73-AE4A-D4098BC2C4A3}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="317">
   <si>
     <t>Menores según si utilizan camiseta, gorra, gafas de sol o sombrero para protegerse del sol / solo 2023 en 2023 (Tasa respuesta: 24,9%)</t>
   </si>
@@ -71,907 +71,919 @@
     <t>19,86%</t>
   </si>
   <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
   </si>
   <si>
     <t>25,72%</t>
   </si>
   <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>52,69%</t>
   </si>
   <si>
     <t>22,4%</t>
   </si>
   <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>45,69%</t>
+  </si>
+  <si>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>42,25%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>55,75%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
     <t>10,74%</t>
   </si>
   <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>40,92%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>53,03%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
   </si>
   <si>
     <t>5,78%</t>
   </si>
   <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>53,4%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
   </si>
   <si>
     <t>5,5%</t>
   </si>
   <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
   </si>
   <si>
     <t>5,0%</t>
   </si>
   <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
+    <t>3,28%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1386,7 +1398,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF4943C-6A8B-46A1-876A-0939D2F0F3CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A381CE55-8883-487D-90D9-099D1D00F9BC}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1747,10 +1759,10 @@
         <v>49</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1765,13 +1777,13 @@
         <v>430</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -1795,13 +1807,13 @@
         <v>430</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1816,13 +1828,13 @@
         <v>616</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -1846,13 +1858,13 @@
         <v>616</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1873,7 +1885,7 @@
         <v>22</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -1903,7 +1915,7 @@
         <v>22</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1924,7 +1936,7 @@
         <v>22</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -1954,7 +1966,7 @@
         <v>22</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1975,7 +1987,7 @@
         <v>22</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2005,7 +2017,7 @@
         <v>22</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2020,13 +2032,13 @@
         <v>557</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -2035,13 +2047,13 @@
         <v>1527</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -2050,13 +2062,13 @@
         <v>2085</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2071,13 +2083,13 @@
         <v>13452</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H15" s="7">
         <v>15</v>
@@ -2086,13 +2098,13 @@
         <v>10307</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M15" s="7">
         <v>34</v>
@@ -2101,18 +2113,18 @@
         <v>23759</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B16" s="5">
         <v>10</v>
@@ -2124,13 +2136,13 @@
         <v>34441</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H16" s="7">
         <v>41</v>
@@ -2139,13 +2151,13 @@
         <v>25014</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M16" s="7">
         <v>92</v>
@@ -2154,13 +2166,13 @@
         <v>59454</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2175,13 +2187,13 @@
         <v>8010</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -2190,13 +2202,13 @@
         <v>3595</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M17" s="7">
         <v>16</v>
@@ -2205,13 +2217,13 @@
         <v>11604</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2226,13 +2238,13 @@
         <v>21046</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H18" s="7">
         <v>20</v>
@@ -2241,13 +2253,13 @@
         <v>12812</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M18" s="7">
         <v>50</v>
@@ -2256,13 +2268,13 @@
         <v>33859</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2277,13 +2289,13 @@
         <v>23830</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H19" s="7">
         <v>21</v>
@@ -2292,13 +2304,13 @@
         <v>14788</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M19" s="7">
         <v>51</v>
@@ -2307,13 +2319,13 @@
         <v>38618</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2328,13 +2340,13 @@
         <v>16402</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H20" s="7">
         <v>18</v>
@@ -2343,13 +2355,13 @@
         <v>10750</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M20" s="7">
         <v>40</v>
@@ -2358,13 +2370,13 @@
         <v>27152</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2379,13 +2391,13 @@
         <v>15185</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H21" s="7">
         <v>21</v>
@@ -2394,13 +2406,13 @@
         <v>13814</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M21" s="7">
         <v>42</v>
@@ -2409,13 +2421,13 @@
         <v>28998</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2430,13 +2442,13 @@
         <v>1630</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -2445,13 +2457,13 @@
         <v>1586</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="M22" s="7">
         <v>4</v>
@@ -2460,13 +2472,13 @@
         <v>3216</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2481,13 +2493,13 @@
         <v>765</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H23" s="7">
         <v>3</v>
@@ -2496,13 +2508,13 @@
         <v>2117</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M23" s="7">
         <v>4</v>
@@ -2511,13 +2523,13 @@
         <v>2882</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2538,7 +2550,7 @@
         <v>22</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -2547,13 +2559,13 @@
         <v>833</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -2562,13 +2574,13 @@
         <v>833</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2589,7 +2601,7 @@
         <v>22</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -2604,7 +2616,7 @@
         <v>22</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -2619,7 +2631,7 @@
         <v>22</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2634,13 +2646,13 @@
         <v>5558</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H26" s="7">
         <v>7</v>
@@ -2649,13 +2661,13 @@
         <v>4419</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M26" s="7">
         <v>14</v>
@@ -2664,13 +2676,13 @@
         <v>9976</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>114</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2685,13 +2697,13 @@
         <v>126867</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H27" s="7">
         <v>140</v>
@@ -2700,13 +2712,13 @@
         <v>89726</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M27" s="7">
         <v>314</v>
@@ -2715,18 +2727,18 @@
         <v>216593</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B28" s="5">
         <v>10</v>
@@ -2738,13 +2750,13 @@
         <v>11884</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H28" s="7">
         <v>19</v>
@@ -2753,13 +2765,13 @@
         <v>11240</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M28" s="7">
         <v>35</v>
@@ -2768,13 +2780,13 @@
         <v>23124</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2789,13 +2801,13 @@
         <v>2228</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -2804,13 +2816,13 @@
         <v>1559</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>165</v>
+        <v>39</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M29" s="7">
         <v>5</v>
@@ -2819,13 +2831,13 @@
         <v>3787</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2840,13 +2852,13 @@
         <v>10997</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>48</v>
+        <v>171</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H30" s="7">
         <v>15</v>
@@ -2855,13 +2867,13 @@
         <v>9094</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M30" s="7">
         <v>31</v>
@@ -2870,13 +2882,13 @@
         <v>20090</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2891,13 +2903,13 @@
         <v>6084</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H31" s="7">
         <v>10</v>
@@ -2906,13 +2918,13 @@
         <v>7031</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M31" s="7">
         <v>20</v>
@@ -2921,13 +2933,13 @@
         <v>13115</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2942,13 +2954,13 @@
         <v>3649</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H32" s="7">
         <v>9</v>
@@ -2957,13 +2969,13 @@
         <v>5129</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M32" s="7">
         <v>15</v>
@@ -2972,13 +2984,13 @@
         <v>8778</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2993,13 +3005,13 @@
         <v>4686</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>17</v>
+        <v>198</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="H33" s="7">
         <v>7</v>
@@ -3008,13 +3020,13 @@
         <v>4493</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>199</v>
+        <v>11</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M33" s="7">
         <v>12</v>
@@ -3023,13 +3035,13 @@
         <v>9179</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3050,7 +3062,7 @@
         <v>22</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -3059,13 +3071,13 @@
         <v>778</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -3074,13 +3086,13 @@
         <v>778</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>139</v>
+        <v>210</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3095,13 +3107,13 @@
         <v>893</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>209</v>
+        <v>17</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -3116,7 +3128,7 @@
         <v>22</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M35" s="7">
         <v>1</v>
@@ -3125,13 +3137,13 @@
         <v>893</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3146,13 +3158,13 @@
         <v>852</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -3161,13 +3173,13 @@
         <v>833</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M36" s="7">
         <v>2</v>
@@ -3176,13 +3188,13 @@
         <v>1685</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3203,7 +3215,7 @@
         <v>22</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H37" s="7">
         <v>2</v>
@@ -3212,13 +3224,13 @@
         <v>1625</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M37" s="7">
         <v>2</v>
@@ -3227,13 +3239,13 @@
         <v>1625</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3248,13 +3260,13 @@
         <v>2377</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>223</v>
+        <v>146</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H38" s="7">
         <v>3</v>
@@ -3263,13 +3275,13 @@
         <v>1956</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M38" s="7">
         <v>6</v>
@@ -3278,13 +3290,13 @@
         <v>4333</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>193</v>
+        <v>231</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3299,13 +3311,13 @@
         <v>43651</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H39" s="7">
         <v>69</v>
@@ -3314,13 +3326,13 @@
         <v>43737</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M39" s="7">
         <v>130</v>
@@ -3329,13 +3341,13 @@
         <v>87388</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3352,13 +3364,13 @@
         <v>48996</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H40" s="7">
         <v>65</v>
@@ -3367,13 +3379,13 @@
         <v>38904</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M40" s="7">
         <v>136</v>
@@ -3382,13 +3394,13 @@
         <v>87900</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3403,13 +3415,13 @@
         <v>10626</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>42</v>
+        <v>241</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>239</v>
+        <v>52</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>240</v>
+        <v>170</v>
       </c>
       <c r="H41" s="7">
         <v>8</v>
@@ -3418,13 +3430,13 @@
         <v>5154</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>24</v>
+        <v>243</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M41" s="7">
         <v>22</v>
@@ -3433,13 +3445,13 @@
         <v>15779</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>204</v>
+        <v>246</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3454,13 +3466,13 @@
         <v>34815</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="H42" s="7">
         <v>39</v>
@@ -3469,13 +3481,13 @@
         <v>26124</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="M42" s="7">
         <v>88</v>
@@ -3484,13 +3496,13 @@
         <v>60939</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3505,13 +3517,13 @@
         <v>32083</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="H43" s="7">
         <v>34</v>
@@ -3520,13 +3532,13 @@
         <v>23327</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>88</v>
+        <v>261</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="M43" s="7">
         <v>77</v>
@@ -3535,13 +3547,13 @@
         <v>55410</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3556,13 +3568,13 @@
         <v>23899</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="H44" s="7">
         <v>28</v>
@@ -3571,13 +3583,13 @@
         <v>16282</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="M44" s="7">
         <v>61</v>
@@ -3586,13 +3598,13 @@
         <v>40181</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3607,13 +3619,13 @@
         <v>20300</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="H45" s="7">
         <v>28</v>
@@ -3622,13 +3634,13 @@
         <v>18307</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>187</v>
+        <v>279</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="M45" s="7">
         <v>55</v>
@@ -3637,13 +3649,13 @@
         <v>38607</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3658,13 +3670,13 @@
         <v>2247</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="H46" s="7">
         <v>3</v>
@@ -3673,13 +3685,13 @@
         <v>2364</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="M46" s="7">
         <v>6</v>
@@ -3688,13 +3700,13 @@
         <v>4611</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3709,13 +3721,13 @@
         <v>1659</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>289</v>
+        <v>138</v>
       </c>
       <c r="H47" s="7">
         <v>3</v>
@@ -3724,13 +3736,13 @@
         <v>2117</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>140</v>
+        <v>295</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>291</v>
+        <v>47</v>
       </c>
       <c r="M47" s="7">
         <v>5</v>
@@ -3739,13 +3751,13 @@
         <v>3775</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>66</v>
+        <v>298</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3760,13 +3772,13 @@
         <v>852</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="H48" s="7">
         <v>2</v>
@@ -3775,13 +3787,13 @@
         <v>1665</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="K48" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="M48" s="7">
         <v>3</v>
@@ -3790,13 +3802,13 @@
         <v>2517</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -3817,7 +3829,7 @@
         <v>22</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="H49" s="7">
         <v>2</v>
@@ -3826,13 +3838,13 @@
         <v>1625</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="K49" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>303</v>
+        <v>210</v>
       </c>
       <c r="M49" s="7">
         <v>2</v>
@@ -3841,13 +3853,13 @@
         <v>1625</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>286</v>
+        <v>308</v>
       </c>
       <c r="P49" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>124</v>
+        <v>230</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -3862,13 +3874,13 @@
         <v>8492</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>304</v>
+        <v>11</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="H50" s="7">
         <v>12</v>
@@ -3877,13 +3889,13 @@
         <v>7902</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>202</v>
+        <v>311</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="M50" s="7">
         <v>23</v>
@@ -3892,13 +3904,13 @@
         <v>16394</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>311</v>
+        <v>270</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -3913,13 +3925,13 @@
         <v>183970</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H51" s="7">
         <v>224</v>
@@ -3928,13 +3940,13 @@
         <v>143770</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M51" s="7">
         <v>478</v>
@@ -3943,18 +3955,18 @@
         <v>327739</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IQ2608_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IQ2608_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACB16290-CA88-4B24-AE69-AE1014E5DBE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{555ECBA9-500D-4CA5-AC49-78B6C0D2779D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A8872D35-650B-4A73-AE4A-D4098BC2C4A3}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{5038FCE0-017D-41A7-9921-261628715760}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="312">
   <si>
     <t>Menores según si utilizan camiseta, gorra, gafas de sol o sombrero para protegerse del sol / solo 2023 en 2023 (Tasa respuesta: 24,9%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,922 +68,907 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>52,69%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>45,23%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
   </si>
   <si>
     <t>39,4%</t>
   </si>
   <si>
-    <t>2,88%</t>
-  </si>
-  <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>16,49%</t>
-  </si>
-  <si>
     <t>0%</t>
   </si>
   <si>
     <t>11,83%</t>
   </si>
   <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>59,61%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>50,58%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
     <t>1,63%</t>
   </si>
   <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>45,69%</t>
-  </si>
-  <si>
-    <t>40,92%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>42,25%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>55,75%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
   </si>
   <si>
     <t>1,81%</t>
   </si>
   <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
   </si>
   <si>
     <t>12,12%</t>
   </si>
   <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
   </si>
   <si>
     <t>15,63%</t>
   </si>
   <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
   </si>
   <si>
     <t>0,6%</t>
   </si>
   <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>40,43%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
   </si>
   <si>
     <t>0,9%</t>
   </si>
   <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
   </si>
   <si>
     <t>0,46%</t>
   </si>
   <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
     <t>0,75%</t>
   </si>
   <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
   </si>
   <si>
     <t>5,5%</t>
   </si>
   <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1398,7 +1383,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A381CE55-8883-487D-90D9-099D1D00F9BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{041CB268-B9CD-4FBF-9803-BF020558D680}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1516,10 +1501,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>2671</v>
+        <v>2644</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>10</v>
@@ -1531,10 +1516,10 @@
         <v>12</v>
       </c>
       <c r="H4" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>2651</v>
+        <v>2917</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>13</v>
@@ -1549,7 +1534,7 @@
         <v>9</v>
       </c>
       <c r="N4" s="7">
-        <v>5322</v>
+        <v>5561</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
@@ -1567,10 +1552,10 @@
         <v>9</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>388</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -1582,16 +1567,16 @@
         <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>396</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>23</v>
@@ -1600,13 +1585,13 @@
         <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>25</v>
@@ -1618,10 +1603,10 @@
         <v>8</v>
       </c>
       <c r="C6" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" s="7">
-        <v>2772</v>
+        <v>5182</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>26</v>
@@ -1633,34 +1618,34 @@
         <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I6" s="7">
-        <v>4218</v>
+        <v>3066</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="M6" s="7">
         <v>7</v>
       </c>
       <c r="N6" s="7">
-        <v>6990</v>
+        <v>8247</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1672,46 +1657,46 @@
         <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>2169</v>
+        <v>1559</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
       </c>
       <c r="I7" s="7">
-        <v>1508</v>
+        <v>2159</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
       </c>
       <c r="N7" s="7">
-        <v>3677</v>
+        <v>3718</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1720,49 +1705,49 @@
         <v>6</v>
       </c>
       <c r="C8" s="7">
+        <v>1</v>
+      </c>
+      <c r="D8" s="7">
+        <v>386</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="7">
         <v>5</v>
       </c>
-      <c r="D8" s="7">
-        <v>3848</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="I8" s="7">
+        <v>3646</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H8" s="7">
-        <v>1</v>
-      </c>
-      <c r="I8" s="7">
-        <v>403</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="M8" s="7">
         <v>6</v>
       </c>
       <c r="N8" s="7">
-        <v>4251</v>
+        <v>4032</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1771,49 +1756,49 @@
         <v>5</v>
       </c>
       <c r="C9" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="7">
-        <v>430</v>
+        <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="7">
-        <v>0</v>
+        <v>484</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
       </c>
       <c r="N9" s="7">
-        <v>430</v>
+        <v>484</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1822,49 +1807,49 @@
         <v>4</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>616</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>596</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>616</v>
+        <v>596</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1879,13 +1864,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -1894,13 +1879,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -1909,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1930,13 +1915,13 @@
         <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="G12" s="7" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -1945,13 +1930,13 @@
         <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -1960,13 +1945,13 @@
         <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="P12" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="Q12" s="7" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1981,13 +1966,13 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="G13" s="7" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1996,13 +1981,13 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -2011,13 +1996,13 @@
         <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2026,49 +2011,49 @@
         <v>0</v>
       </c>
       <c r="C14" s="7">
+        <v>2</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1486</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="7">
         <v>1</v>
       </c>
-      <c r="D14" s="7">
-        <v>557</v>
-      </c>
-      <c r="E14" s="7" t="s">
+      <c r="I14" s="7">
+        <v>564</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="H14" s="7">
-        <v>2</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1527</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
       </c>
       <c r="N14" s="7">
-        <v>2085</v>
+        <v>2050</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2077,102 +2062,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D15" s="7">
-        <v>13452</v>
+        <v>11256</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H15" s="7">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I15" s="7">
-        <v>10307</v>
+        <v>13829</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M15" s="7">
         <v>34</v>
       </c>
       <c r="N15" s="7">
-        <v>23759</v>
+        <v>25085</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B16" s="5">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>41</v>
+      </c>
+      <c r="D16" s="7">
+        <v>25959</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H16" s="7">
         <v>51</v>
       </c>
-      <c r="D16" s="7">
-        <v>34441</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="I16" s="7">
+        <v>37368</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="H16" s="7">
-        <v>41</v>
-      </c>
-      <c r="I16" s="7">
-        <v>25014</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M16" s="7">
         <v>92</v>
       </c>
       <c r="N16" s="7">
-        <v>59454</v>
+        <v>63328</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2181,49 +2166,49 @@
         <v>9</v>
       </c>
       <c r="C17" s="7">
+        <v>6</v>
+      </c>
+      <c r="D17" s="7">
+        <v>3453</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H17" s="7">
         <v>10</v>
       </c>
-      <c r="D17" s="7">
-        <v>8010</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="I17" s="7">
+        <v>8423</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="H17" s="7">
-        <v>6</v>
-      </c>
-      <c r="I17" s="7">
-        <v>3595</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M17" s="7">
         <v>16</v>
       </c>
       <c r="N17" s="7">
-        <v>11604</v>
+        <v>11876</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2232,49 +2217,49 @@
         <v>8</v>
       </c>
       <c r="C18" s="7">
+        <v>20</v>
+      </c>
+      <c r="D18" s="7">
+        <v>11987</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H18" s="7">
         <v>30</v>
       </c>
-      <c r="D18" s="7">
-        <v>21046</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F18" s="7" t="s">
+      <c r="I18" s="7">
+        <v>20783</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H18" s="7">
-        <v>20</v>
-      </c>
-      <c r="I18" s="7">
-        <v>12812</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M18" s="7">
         <v>50</v>
       </c>
       <c r="N18" s="7">
-        <v>33859</v>
+        <v>32770</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2283,49 +2268,49 @@
         <v>7</v>
       </c>
       <c r="C19" s="7">
+        <v>21</v>
+      </c>
+      <c r="D19" s="7">
+        <v>13908</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H19" s="7">
         <v>30</v>
       </c>
-      <c r="D19" s="7">
-        <v>23830</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="I19" s="7">
+        <v>25664</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H19" s="7">
-        <v>21</v>
-      </c>
-      <c r="I19" s="7">
-        <v>14788</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M19" s="7">
         <v>51</v>
       </c>
       <c r="N19" s="7">
-        <v>38618</v>
+        <v>39573</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2334,49 +2319,49 @@
         <v>6</v>
       </c>
       <c r="C20" s="7">
+        <v>18</v>
+      </c>
+      <c r="D20" s="7">
+        <v>10499</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H20" s="7">
         <v>22</v>
       </c>
-      <c r="D20" s="7">
-        <v>16402</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F20" s="7" t="s">
+      <c r="I20" s="7">
+        <v>16963</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="H20" s="7">
-        <v>18</v>
-      </c>
-      <c r="I20" s="7">
-        <v>10750</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M20" s="7">
         <v>40</v>
       </c>
       <c r="N20" s="7">
-        <v>27152</v>
+        <v>27462</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2388,46 +2373,46 @@
         <v>21</v>
       </c>
       <c r="D21" s="7">
-        <v>15185</v>
+        <v>13860</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H21" s="7">
         <v>21</v>
       </c>
       <c r="I21" s="7">
-        <v>13814</v>
+        <v>15634</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M21" s="7">
         <v>42</v>
       </c>
       <c r="N21" s="7">
-        <v>28998</v>
+        <v>29494</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2439,46 +2424,46 @@
         <v>2</v>
       </c>
       <c r="D22" s="7">
-        <v>1630</v>
+        <v>1574</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
       </c>
       <c r="I22" s="7">
-        <v>1586</v>
+        <v>1703</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="M22" s="7">
         <v>4</v>
       </c>
       <c r="N22" s="7">
-        <v>3216</v>
+        <v>3278</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2487,49 +2472,49 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D23" s="7">
-        <v>765</v>
+        <v>2072</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>132</v>
       </c>
       <c r="H23" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I23" s="7">
-        <v>2117</v>
+        <v>811</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>133</v>
       </c>
       <c r="K23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M23" s="7">
         <v>4</v>
       </c>
       <c r="N23" s="7">
-        <v>2882</v>
+        <v>2883</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2538,49 +2523,49 @@
         <v>2</v>
       </c>
       <c r="C24" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" s="7">
-        <v>0</v>
+        <v>815</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>139</v>
       </c>
       <c r="H24" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" s="7">
-        <v>833</v>
+        <v>0</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>140</v>
+        <v>19</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
       </c>
       <c r="N24" s="7">
-        <v>833</v>
+        <v>815</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2595,13 +2580,13 @@
         <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="G25" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -2610,13 +2595,13 @@
         <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K25" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="L25" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -2625,13 +2610,13 @@
         <v>0</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="P25" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="Q25" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2643,46 +2628,46 @@
         <v>7</v>
       </c>
       <c r="D26" s="7">
-        <v>5558</v>
+        <v>4461</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H26" s="7">
         <v>7</v>
       </c>
       <c r="I26" s="7">
-        <v>4419</v>
+        <v>5870</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M26" s="7">
         <v>14</v>
       </c>
       <c r="N26" s="7">
-        <v>9976</v>
+        <v>10331</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2691,102 +2676,102 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>140</v>
+      </c>
+      <c r="D27" s="7">
+        <v>88589</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H27" s="7">
         <v>174</v>
       </c>
-      <c r="D27" s="7">
-        <v>126867</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H27" s="7">
-        <v>140</v>
-      </c>
       <c r="I27" s="7">
-        <v>89726</v>
+        <v>133219</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M27" s="7">
         <v>314</v>
       </c>
       <c r="N27" s="7">
-        <v>216593</v>
+        <v>221809</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B28" s="5">
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>19</v>
+      </c>
+      <c r="D28" s="7">
+        <v>11112</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H28" s="7">
         <v>16</v>
       </c>
-      <c r="D28" s="7">
-        <v>11884</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G28" s="7" t="s">
+      <c r="I28" s="7">
+        <v>12200</v>
+      </c>
+      <c r="J28" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="H28" s="7">
-        <v>19</v>
-      </c>
-      <c r="I28" s="7">
-        <v>11240</v>
-      </c>
-      <c r="J28" s="7" t="s">
+      <c r="K28" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M28" s="7">
         <v>35</v>
       </c>
       <c r="N28" s="7">
-        <v>23124</v>
+        <v>23312</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2795,31 +2780,31 @@
         <v>9</v>
       </c>
       <c r="C29" s="7">
+        <v>2</v>
+      </c>
+      <c r="D29" s="7">
+        <v>1405</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H29" s="7">
         <v>3</v>
       </c>
-      <c r="D29" s="7">
-        <v>2228</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="F29" s="7" t="s">
+      <c r="I29" s="7">
+        <v>2175</v>
+      </c>
+      <c r="J29" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="K29" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="H29" s="7">
-        <v>2</v>
-      </c>
-      <c r="I29" s="7">
-        <v>1559</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>167</v>
@@ -2828,7 +2813,7 @@
         <v>5</v>
       </c>
       <c r="N29" s="7">
-        <v>3787</v>
+        <v>3580</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>168</v>
@@ -2846,10 +2831,10 @@
         <v>8</v>
       </c>
       <c r="C30" s="7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D30" s="7">
-        <v>10997</v>
+        <v>8808</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>171</v>
@@ -2861,10 +2846,10 @@
         <v>173</v>
       </c>
       <c r="H30" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I30" s="7">
-        <v>9094</v>
+        <v>11036</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>174</v>
@@ -2879,7 +2864,7 @@
         <v>31</v>
       </c>
       <c r="N30" s="7">
-        <v>20090</v>
+        <v>19844</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>177</v>
@@ -2900,7 +2885,7 @@
         <v>10</v>
       </c>
       <c r="D31" s="7">
-        <v>6084</v>
+        <v>7199</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>180</v>
@@ -2915,7 +2900,7 @@
         <v>10</v>
       </c>
       <c r="I31" s="7">
-        <v>7031</v>
+        <v>6320</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>183</v>
@@ -2930,7 +2915,7 @@
         <v>20</v>
       </c>
       <c r="N31" s="7">
-        <v>13115</v>
+        <v>13519</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>186</v>
@@ -2948,10 +2933,10 @@
         <v>6</v>
       </c>
       <c r="C32" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D32" s="7">
-        <v>3649</v>
+        <v>5205</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>189</v>
@@ -2963,10 +2948,10 @@
         <v>191</v>
       </c>
       <c r="H32" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I32" s="7">
-        <v>5129</v>
+        <v>3884</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>192</v>
@@ -2981,7 +2966,7 @@
         <v>15</v>
       </c>
       <c r="N32" s="7">
-        <v>8778</v>
+        <v>9089</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>195</v>
@@ -2990,7 +2975,7 @@
         <v>196</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>197</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2999,31 +2984,31 @@
         <v>5</v>
       </c>
       <c r="C33" s="7">
+        <v>7</v>
+      </c>
+      <c r="D33" s="7">
+        <v>4457</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="H33" s="7">
         <v>5</v>
       </c>
-      <c r="D33" s="7">
-        <v>4686</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G33" s="7" t="s">
+      <c r="I33" s="7">
+        <v>4833</v>
+      </c>
+      <c r="J33" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="H33" s="7">
-        <v>7</v>
-      </c>
-      <c r="I33" s="7">
-        <v>4493</v>
-      </c>
-      <c r="J33" s="7" t="s">
+      <c r="K33" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="L33" s="7" t="s">
         <v>202</v>
@@ -3032,16 +3017,16 @@
         <v>12</v>
       </c>
       <c r="N33" s="7">
-        <v>9179</v>
+        <v>9291</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P33" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="P33" s="7" t="s">
+      <c r="Q33" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3050,49 +3035,49 @@
         <v>4</v>
       </c>
       <c r="C34" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" s="7">
-        <v>0</v>
+        <v>713</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>20</v>
+        <v>205</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>206</v>
       </c>
       <c r="H34" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" s="7">
-        <v>778</v>
+        <v>0</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>207</v>
+        <v>19</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
       </c>
       <c r="N34" s="7">
-        <v>778</v>
+        <v>713</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3101,31 +3086,31 @@
         <v>3</v>
       </c>
       <c r="C35" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" s="7">
-        <v>893</v>
+        <v>0</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>211</v>
+        <v>19</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>17</v>
+        <v>210</v>
       </c>
       <c r="H35" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" s="7">
-        <v>0</v>
+        <v>922</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>20</v>
+        <v>211</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L35" s="7" t="s">
         <v>212</v>
@@ -3134,13 +3119,13 @@
         <v>1</v>
       </c>
       <c r="N35" s="7">
-        <v>893</v>
+        <v>922</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>213</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q35" s="7" t="s">
         <v>214</v>
@@ -3155,13 +3140,13 @@
         <v>1</v>
       </c>
       <c r="D36" s="7">
-        <v>852</v>
+        <v>819</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>215</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>216</v>
@@ -3170,13 +3155,13 @@
         <v>1</v>
       </c>
       <c r="I36" s="7">
-        <v>833</v>
+        <v>882</v>
       </c>
       <c r="J36" s="7" t="s">
         <v>217</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>218</v>
@@ -3185,16 +3170,16 @@
         <v>2</v>
       </c>
       <c r="N36" s="7">
-        <v>1685</v>
+        <v>1701</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3203,49 +3188,49 @@
         <v>1</v>
       </c>
       <c r="C37" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D37" s="7">
-        <v>0</v>
+        <v>1604</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>20</v>
+        <v>220</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="H37" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" s="7">
-        <v>1625</v>
+        <v>0</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>221</v>
+        <v>19</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="M37" s="7">
         <v>2</v>
       </c>
       <c r="N37" s="7">
-        <v>1625</v>
+        <v>1604</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3257,46 +3242,46 @@
         <v>3</v>
       </c>
       <c r="D38" s="7">
-        <v>2377</v>
+        <v>1925</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>61</v>
+        <v>224</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>146</v>
+        <v>225</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H38" s="7">
         <v>3</v>
       </c>
       <c r="I38" s="7">
-        <v>1956</v>
+        <v>2469</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M38" s="7">
         <v>6</v>
       </c>
       <c r="N38" s="7">
-        <v>4333</v>
+        <v>4395</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3305,49 +3290,49 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
+        <v>69</v>
+      </c>
+      <c r="D39" s="7">
+        <v>43248</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H39" s="7">
         <v>61</v>
       </c>
-      <c r="D39" s="7">
-        <v>43651</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H39" s="7">
-        <v>69</v>
-      </c>
       <c r="I39" s="7">
-        <v>43737</v>
+        <v>44721</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M39" s="7">
         <v>130</v>
       </c>
       <c r="N39" s="7">
-        <v>87388</v>
+        <v>87970</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3358,49 +3343,49 @@
         <v>10</v>
       </c>
       <c r="C40" s="7">
+        <v>65</v>
+      </c>
+      <c r="D40" s="7">
+        <v>39715</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="H40" s="7">
         <v>71</v>
       </c>
-      <c r="D40" s="7">
-        <v>48996</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="H40" s="7">
-        <v>65</v>
-      </c>
       <c r="I40" s="7">
-        <v>38904</v>
+        <v>52486</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M40" s="7">
         <v>136</v>
       </c>
       <c r="N40" s="7">
-        <v>87900</v>
+        <v>92201</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3409,49 +3394,49 @@
         <v>9</v>
       </c>
       <c r="C41" s="7">
+        <v>8</v>
+      </c>
+      <c r="D41" s="7">
+        <v>4858</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="H41" s="7">
         <v>14</v>
       </c>
-      <c r="D41" s="7">
-        <v>10626</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="H41" s="7">
-        <v>8</v>
-      </c>
       <c r="I41" s="7">
-        <v>5154</v>
+        <v>10994</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="M41" s="7">
         <v>22</v>
       </c>
       <c r="N41" s="7">
-        <v>15779</v>
+        <v>15852</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3460,49 +3445,49 @@
         <v>8</v>
       </c>
       <c r="C42" s="7">
+        <v>39</v>
+      </c>
+      <c r="D42" s="7">
+        <v>25977</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="H42" s="7">
         <v>49</v>
       </c>
-      <c r="D42" s="7">
-        <v>34815</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="H42" s="7">
-        <v>39</v>
-      </c>
       <c r="I42" s="7">
-        <v>26124</v>
+        <v>34884</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M42" s="7">
         <v>88</v>
       </c>
       <c r="N42" s="7">
-        <v>60939</v>
+        <v>60861</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3511,49 +3496,49 @@
         <v>7</v>
       </c>
       <c r="C43" s="7">
+        <v>34</v>
+      </c>
+      <c r="D43" s="7">
+        <v>22666</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="H43" s="7">
         <v>43</v>
       </c>
-      <c r="D43" s="7">
-        <v>32083</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="H43" s="7">
-        <v>34</v>
-      </c>
       <c r="I43" s="7">
-        <v>23327</v>
+        <v>34144</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M43" s="7">
         <v>77</v>
       </c>
       <c r="N43" s="7">
-        <v>55410</v>
+        <v>56810</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3562,49 +3547,49 @@
         <v>6</v>
       </c>
       <c r="C44" s="7">
+        <v>28</v>
+      </c>
+      <c r="D44" s="7">
+        <v>16089</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="H44" s="7">
         <v>33</v>
       </c>
-      <c r="D44" s="7">
-        <v>23899</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="H44" s="7">
-        <v>28</v>
-      </c>
       <c r="I44" s="7">
-        <v>16282</v>
+        <v>24493</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="M44" s="7">
         <v>61</v>
       </c>
       <c r="N44" s="7">
-        <v>40181</v>
+        <v>40582</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3613,49 +3598,49 @@
         <v>5</v>
       </c>
       <c r="C45" s="7">
+        <v>28</v>
+      </c>
+      <c r="D45" s="7">
+        <v>18318</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="H45" s="7">
         <v>27</v>
       </c>
-      <c r="D45" s="7">
-        <v>20300</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="H45" s="7">
-        <v>28</v>
-      </c>
       <c r="I45" s="7">
-        <v>18307</v>
+        <v>20951</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>278</v>
+        <v>94</v>
       </c>
       <c r="K45" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L45" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="M45" s="7">
         <v>55</v>
       </c>
       <c r="N45" s="7">
-        <v>38607</v>
+        <v>39269</v>
       </c>
       <c r="O45" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q45" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3667,46 +3652,46 @@
         <v>3</v>
       </c>
       <c r="D46" s="7">
-        <v>2247</v>
+        <v>2287</v>
       </c>
       <c r="E46" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G46" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="H46" s="7">
         <v>3</v>
       </c>
       <c r="I46" s="7">
-        <v>2364</v>
+        <v>2300</v>
       </c>
       <c r="J46" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="L46" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="K46" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="M46" s="7">
         <v>6</v>
       </c>
       <c r="N46" s="7">
-        <v>4611</v>
+        <v>4587</v>
       </c>
       <c r="O46" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q46" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="P46" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3715,49 +3700,49 @@
         <v>3</v>
       </c>
       <c r="C47" s="7">
+        <v>3</v>
+      </c>
+      <c r="D47" s="7">
+        <v>2072</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="H47" s="7">
         <v>2</v>
       </c>
-      <c r="D47" s="7">
-        <v>1659</v>
-      </c>
-      <c r="E47" s="7" t="s">
+      <c r="I47" s="7">
+        <v>1733</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L47" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="H47" s="7">
-        <v>3</v>
-      </c>
-      <c r="I47" s="7">
-        <v>2117</v>
-      </c>
-      <c r="J47" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="K47" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="M47" s="7">
         <v>5</v>
       </c>
       <c r="N47" s="7">
-        <v>3775</v>
+        <v>3804</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>297</v>
+        <v>128</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3766,34 +3751,34 @@
         <v>2</v>
       </c>
       <c r="C48" s="7">
+        <v>2</v>
+      </c>
+      <c r="D48" s="7">
+        <v>1635</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H48" s="7">
         <v>1</v>
       </c>
-      <c r="D48" s="7">
-        <v>852</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="H48" s="7">
-        <v>2</v>
-      </c>
       <c r="I48" s="7">
-        <v>1665</v>
+        <v>882</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>302</v>
+        <v>38</v>
       </c>
       <c r="M48" s="7">
         <v>3</v>
@@ -3802,13 +3787,13 @@
         <v>2517</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -3817,49 +3802,49 @@
         <v>1</v>
       </c>
       <c r="C49" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D49" s="7">
-        <v>0</v>
+        <v>1604</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>306</v>
+        <v>224</v>
       </c>
       <c r="H49" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" s="7">
-        <v>1625</v>
+        <v>0</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>307</v>
+        <v>19</v>
       </c>
       <c r="K49" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>210</v>
+        <v>297</v>
       </c>
       <c r="M49" s="7">
         <v>2</v>
       </c>
       <c r="N49" s="7">
-        <v>1625</v>
+        <v>1604</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>230</v>
+        <v>127</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -3868,49 +3853,49 @@
         <v>0</v>
       </c>
       <c r="C50" s="7">
+        <v>12</v>
+      </c>
+      <c r="D50" s="7">
+        <v>7873</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="H50" s="7">
         <v>11</v>
       </c>
-      <c r="D50" s="7">
-        <v>8492</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="H50" s="7">
-        <v>12</v>
-      </c>
       <c r="I50" s="7">
-        <v>7902</v>
+        <v>8903</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="M50" s="7">
         <v>23</v>
       </c>
       <c r="N50" s="7">
-        <v>16394</v>
+        <v>16776</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>270</v>
+        <v>310</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -3919,54 +3904,54 @@
         <v>3</v>
       </c>
       <c r="C51" s="7">
+        <v>224</v>
+      </c>
+      <c r="D51" s="7">
+        <v>143093</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H51" s="7">
         <v>254</v>
       </c>
-      <c r="D51" s="7">
-        <v>183970</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H51" s="7">
-        <v>224</v>
-      </c>
       <c r="I51" s="7">
-        <v>143770</v>
+        <v>191770</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M51" s="7">
         <v>478</v>
       </c>
       <c r="N51" s="7">
-        <v>327739</v>
+        <v>334863</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
